--- a/0 Setup/2 Bank Customer Targeting (Marketing)/Data Dictionary.xlsx
+++ b/0 Setup/2 Bank Customer Targeting (Marketing)/Data Dictionary.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\__DataScience_wKunaal_Channel\__Data Science Practise\Problem_Statements\1 Job Change Probability (HR Analytics)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\__DataScience_wKunaal_Channel\__1 Data Science Practice\1_Python\DS_Practice_Session\0 Setup\2 Bank Customer Targeting (Marketing)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4713AEC-CD67-4902-B708-21E9CA66FFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CE7718-41E5-49E0-8286-94EFD98EE896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72" yWindow="0" windowWidth="17280" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,108 +25,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>enrollee_id</t>
-  </si>
-  <si>
-    <t>Unique ID for enrollee</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>City code</t>
-  </si>
-  <si>
-    <t>city_development_index</t>
-  </si>
-  <si>
-    <t>Developement index of the city (scaled)</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>relevent_experience</t>
-  </si>
-  <si>
-    <t>Relevent experience</t>
-  </si>
-  <si>
-    <t>enrolled_university</t>
-  </si>
-  <si>
-    <t>Type of University course enrolled if any</t>
-  </si>
-  <si>
-    <t>education_level</t>
-  </si>
-  <si>
-    <t>Education level</t>
-  </si>
-  <si>
-    <t>major_discipline</t>
-  </si>
-  <si>
-    <t>Major discipline</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>Total experience in years</t>
-  </si>
-  <si>
-    <t>company_size</t>
-  </si>
-  <si>
-    <t>No of employees in current employer's company</t>
-  </si>
-  <si>
-    <t>company_type</t>
-  </si>
-  <si>
-    <t>Type of current employer</t>
-  </si>
-  <si>
-    <t>last_new_job</t>
-  </si>
-  <si>
-    <t>Difference in years between previous job and current job</t>
-  </si>
-  <si>
-    <t>training_hours</t>
-  </si>
-  <si>
-    <t>training hours completed</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>0 – Not looking for job change, 1 – Looking for a job change</t>
-  </si>
-  <si>
-    <t>Column Name</t>
-  </si>
-  <si>
-    <t>probability of an enrollee looking for a job change</t>
-  </si>
-  <si>
-    <t>Submission File</t>
-  </si>
-  <si>
-    <t>Training Data</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>Input variables:</t>
+  </si>
+  <si>
+    <t># bank client data:</t>
+  </si>
+  <si>
+    <t>1 - age (numeric)</t>
+  </si>
+  <si>
+    <t>2 - job : type of job (categorical: 'admin.','blue-collar','entrepreneur','housemaid','management','retired','self-employed','services','student','technician','unemployed','unknown')</t>
+  </si>
+  <si>
+    <t>3 - marital : marital status (categorical: 'divorced','married','single','unknown'; note: 'divorced' means divorced or widowed)</t>
+  </si>
+  <si>
+    <t>4 - education (categorical: 'basic.4y','basic.6y','basic.9y','high.school','illiterate','professional.course','university.degree','unknown')</t>
+  </si>
+  <si>
+    <t>5 - default: has credit in default? (categorical: 'no','yes','unknown')</t>
+  </si>
+  <si>
+    <t>6 - housing: has housing loan? (categorical: 'no','yes','unknown')</t>
+  </si>
+  <si>
+    <t>7 - loan: has personal loan? (categorical: 'no','yes','unknown')</t>
+  </si>
+  <si>
+    <t># related with the last contact of the current campaign:</t>
+  </si>
+  <si>
+    <t>8 - contact: contact communication type (categorical: 'cellular','telephone')</t>
+  </si>
+  <si>
+    <t>9 - month: last contact month of year (categorical: 'jan', 'feb', 'mar', ..., 'nov', 'dec')</t>
+  </si>
+  <si>
+    <t>10 - day_of_week: last contact day of the week (categorical: 'mon','tue','wed','thu','fri')</t>
+  </si>
+  <si>
+    <t>11 - duration: last contact duration, in seconds (numeric). Important note: this attribute highly affects the output target (e.g., if duration=0 then y='no'). Yet, the duration is not known before a call is performed. Also, after the end of the call y is obviously known. Thus, this input should only be included for benchmark purposes and should be discarded if the intention is to have a realistic predictive model.</t>
+  </si>
+  <si>
+    <t># other attributes:</t>
+  </si>
+  <si>
+    <t>12 - campaign: number of contacts performed during this campaign and for this client (numeric, includes last contact)</t>
+  </si>
+  <si>
+    <t>13 - pdays: number of days that passed by after the client was last contacted from a previous campaign (numeric; 999 means client was not previously contacted)</t>
+  </si>
+  <si>
+    <t>14 - previous: number of contacts performed before this campaign and for this client (numeric)</t>
+  </si>
+  <si>
+    <t>15 - poutcome: outcome of the previous marketing campaign (categorical: 'failure','nonexistent','success')</t>
+  </si>
+  <si>
+    <t># social and economic context attributes</t>
+  </si>
+  <si>
+    <t>16 - emp.var.rate: employment variation rate - quarterly indicator (numeric)</t>
+  </si>
+  <si>
+    <t>17 - cons.price.idx: consumer price index - monthly indicator (numeric)</t>
+  </si>
+  <si>
+    <t>18 - cons.conf.idx: consumer confidence index - monthly indicator (numeric)</t>
+  </si>
+  <si>
+    <t>19 - euribor3m: euribor 3 month rate - daily indicator (numeric)</t>
+  </si>
+  <si>
+    <t>20 - nr.employed: number of employees - quarterly indicator (numeric)</t>
+  </si>
+  <si>
+    <t>Output variable (desired target):</t>
+  </si>
+  <si>
+    <t>21 - y - has the client subscribed a term deposit? (binary: 'yes','no')</t>
   </si>
 </sst>
 </file>
@@ -142,13 +121,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="8"/>
+      <color rgb="FF123654"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,14 +147,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,180 +429,151 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB41E4D8-704A-491C-ADEB-7505DE89B2B0}">
+  <dimension ref="A1:A28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/0 Setup/2 Bank Customer Targeting (Marketing)/Data Dictionary.xlsx
+++ b/0 Setup/2 Bank Customer Targeting (Marketing)/Data Dictionary.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\__DataScience_wKunaal_Channel\__1 Data Science Practice\1_Python\DS_Practice_Session\0 Setup\2 Bank Customer Targeting (Marketing)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\__DataScience_wKunaal_Channel\__Data Science Practise\Problem_Statements\1 Job Change Probability (HR Analytics)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CE7718-41E5-49E0-8286-94EFD98EE896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4713AEC-CD67-4902-B708-21E9CA66FFA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="72" yWindow="0" windowWidth="17280" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,87 +25,108 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Input variables:</t>
-  </si>
-  <si>
-    <t># bank client data:</t>
-  </si>
-  <si>
-    <t>1 - age (numeric)</t>
-  </si>
-  <si>
-    <t>2 - job : type of job (categorical: 'admin.','blue-collar','entrepreneur','housemaid','management','retired','self-employed','services','student','technician','unemployed','unknown')</t>
-  </si>
-  <si>
-    <t>3 - marital : marital status (categorical: 'divorced','married','single','unknown'; note: 'divorced' means divorced or widowed)</t>
-  </si>
-  <si>
-    <t>4 - education (categorical: 'basic.4y','basic.6y','basic.9y','high.school','illiterate','professional.course','university.degree','unknown')</t>
-  </si>
-  <si>
-    <t>5 - default: has credit in default? (categorical: 'no','yes','unknown')</t>
-  </si>
-  <si>
-    <t>6 - housing: has housing loan? (categorical: 'no','yes','unknown')</t>
-  </si>
-  <si>
-    <t>7 - loan: has personal loan? (categorical: 'no','yes','unknown')</t>
-  </si>
-  <si>
-    <t># related with the last contact of the current campaign:</t>
-  </si>
-  <si>
-    <t>8 - contact: contact communication type (categorical: 'cellular','telephone')</t>
-  </si>
-  <si>
-    <t>9 - month: last contact month of year (categorical: 'jan', 'feb', 'mar', ..., 'nov', 'dec')</t>
-  </si>
-  <si>
-    <t>10 - day_of_week: last contact day of the week (categorical: 'mon','tue','wed','thu','fri')</t>
-  </si>
-  <si>
-    <t>11 - duration: last contact duration, in seconds (numeric). Important note: this attribute highly affects the output target (e.g., if duration=0 then y='no'). Yet, the duration is not known before a call is performed. Also, after the end of the call y is obviously known. Thus, this input should only be included for benchmark purposes and should be discarded if the intention is to have a realistic predictive model.</t>
-  </si>
-  <si>
-    <t># other attributes:</t>
-  </si>
-  <si>
-    <t>12 - campaign: number of contacts performed during this campaign and for this client (numeric, includes last contact)</t>
-  </si>
-  <si>
-    <t>13 - pdays: number of days that passed by after the client was last contacted from a previous campaign (numeric; 999 means client was not previously contacted)</t>
-  </si>
-  <si>
-    <t>14 - previous: number of contacts performed before this campaign and for this client (numeric)</t>
-  </si>
-  <si>
-    <t>15 - poutcome: outcome of the previous marketing campaign (categorical: 'failure','nonexistent','success')</t>
-  </si>
-  <si>
-    <t># social and economic context attributes</t>
-  </si>
-  <si>
-    <t>16 - emp.var.rate: employment variation rate - quarterly indicator (numeric)</t>
-  </si>
-  <si>
-    <t>17 - cons.price.idx: consumer price index - monthly indicator (numeric)</t>
-  </si>
-  <si>
-    <t>18 - cons.conf.idx: consumer confidence index - monthly indicator (numeric)</t>
-  </si>
-  <si>
-    <t>19 - euribor3m: euribor 3 month rate - daily indicator (numeric)</t>
-  </si>
-  <si>
-    <t>20 - nr.employed: number of employees - quarterly indicator (numeric)</t>
-  </si>
-  <si>
-    <t>Output variable (desired target):</t>
-  </si>
-  <si>
-    <t>21 - y - has the client subscribed a term deposit? (binary: 'yes','no')</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>enrollee_id</t>
+  </si>
+  <si>
+    <t>Unique ID for enrollee</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>City code</t>
+  </si>
+  <si>
+    <t>city_development_index</t>
+  </si>
+  <si>
+    <t>Developement index of the city (scaled)</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>relevent_experience</t>
+  </si>
+  <si>
+    <t>Relevent experience</t>
+  </si>
+  <si>
+    <t>enrolled_university</t>
+  </si>
+  <si>
+    <t>Type of University course enrolled if any</t>
+  </si>
+  <si>
+    <t>education_level</t>
+  </si>
+  <si>
+    <t>Education level</t>
+  </si>
+  <si>
+    <t>major_discipline</t>
+  </si>
+  <si>
+    <t>Major discipline</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>Total experience in years</t>
+  </si>
+  <si>
+    <t>company_size</t>
+  </si>
+  <si>
+    <t>No of employees in current employer's company</t>
+  </si>
+  <si>
+    <t>company_type</t>
+  </si>
+  <si>
+    <t>Type of current employer</t>
+  </si>
+  <si>
+    <t>last_new_job</t>
+  </si>
+  <si>
+    <t>Difference in years between previous job and current job</t>
+  </si>
+  <si>
+    <t>training_hours</t>
+  </si>
+  <si>
+    <t>training hours completed</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>0 – Not looking for job change, 1 – Looking for a job change</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>probability of an enrollee looking for a job change</t>
+  </si>
+  <si>
+    <t>Submission File</t>
+  </si>
+  <si>
+    <t>Training Data</t>
   </si>
 </sst>
 </file>
@@ -121,10 +142,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF123654"/>
-      <name val="Arial"/>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,9 +171,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,151 +458,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB41E4D8-704A-491C-ADEB-7505DE89B2B0}">
-  <dimension ref="A1:A28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>